--- a/User Study/Results/results.xlsx
+++ b/User Study/Results/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14235" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14235" firstSheet="5" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="Total" sheetId="16" r:id="rId14"/>
     <sheet name="Comments" sheetId="20" r:id="rId15"/>
     <sheet name="Debugging strategies" sheetId="22" r:id="rId16"/>
+    <sheet name="number of devices used" sheetId="23" r:id="rId17"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="241">
   <si>
     <t>Year of birth</t>
   </si>
@@ -733,6 +734,36 @@
   <si>
     <t>Used function debugging</t>
   </si>
+  <si>
+    <t>xdcb-wo</t>
+  </si>
+  <si>
+    <t>xdci-w</t>
+  </si>
+  <si>
+    <t>xdci-wo</t>
+  </si>
+  <si>
+    <t>xdcb-w</t>
+  </si>
+  <si>
+    <t>xdytb-w</t>
+  </si>
+  <si>
+    <t>xdytb-wo</t>
+  </si>
+  <si>
+    <t>xdyti-w</t>
+  </si>
+  <si>
+    <t>xdyti-wo</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Emulated</t>
+  </si>
 </sst>
 </file>
 
@@ -1247,11 +1278,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="218204736"/>
-        <c:axId val="243399832"/>
+        <c:axId val="133605312"/>
+        <c:axId val="133606096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="218204736"/>
+        <c:axId val="133605312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1294,7 +1325,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243399832"/>
+        <c:crossAx val="133606096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1302,7 +1333,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243399832"/>
+        <c:axId val="133606096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1353,7 +1384,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218204736"/>
+        <c:crossAx val="133605312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1545,7 +1576,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1696,7 +1726,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1767,11 +1796,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="245264104"/>
-        <c:axId val="245264496"/>
+        <c:axId val="136512776"/>
+        <c:axId val="136876560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="245264104"/>
+        <c:axId val="136512776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,7 +1843,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245264496"/>
+        <c:crossAx val="136876560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1822,7 +1851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245264496"/>
+        <c:axId val="136876560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1875,7 +1904,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245264104"/>
+        <c:crossAx val="136512776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1890,7 +1919,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2154,9 +2182,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2436,7 +2462,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2699,9 +2724,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2761,7 +2784,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3025,9 +3047,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3087,7 +3107,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3351,9 +3370,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3413,7 +3430,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3677,9 +3693,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3739,7 +3753,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4009,9 +4022,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4071,7 +4082,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4451,11 +4461,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="244732896"/>
-        <c:axId val="244733288"/>
+        <c:axId val="136879696"/>
+        <c:axId val="136880088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="244732896"/>
+        <c:axId val="136879696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4498,7 +4508,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244733288"/>
+        <c:crossAx val="136880088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4506,7 +4516,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244733288"/>
+        <c:axId val="136880088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4558,7 +4568,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244732896"/>
+        <c:crossAx val="136879696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4572,7 +4582,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4916,11 +4925,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="244734072"/>
-        <c:axId val="244734464"/>
+        <c:axId val="136828272"/>
+        <c:axId val="136828664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="244734072"/>
+        <c:axId val="136828272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4963,7 +4972,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244734464"/>
+        <c:crossAx val="136828664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4971,7 +4980,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244734464"/>
+        <c:axId val="136828664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5023,7 +5032,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244734072"/>
+        <c:crossAx val="136828272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5037,7 +5046,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5345,11 +5353,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="244735248"/>
-        <c:axId val="244735640"/>
+        <c:axId val="136829448"/>
+        <c:axId val="136829840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="244735248"/>
+        <c:axId val="136829448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5392,7 +5400,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244735640"/>
+        <c:crossAx val="136829840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5400,7 +5408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244735640"/>
+        <c:axId val="136829840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -5452,7 +5460,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244735248"/>
+        <c:crossAx val="136829448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5466,7 +5474,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5894,11 +5901,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="243401008"/>
-        <c:axId val="243401400"/>
+        <c:axId val="134786104"/>
+        <c:axId val="134786496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="243401008"/>
+        <c:axId val="134786104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5941,7 +5948,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243401400"/>
+        <c:crossAx val="134786496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5949,7 +5956,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243401400"/>
+        <c:axId val="134786496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6000,7 +6007,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243401008"/>
+        <c:crossAx val="134786104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6188,11 +6195,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="244736424"/>
-        <c:axId val="245059552"/>
+        <c:axId val="136830624"/>
+        <c:axId val="136831016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="244736424"/>
+        <c:axId val="136830624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6235,7 +6242,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245059552"/>
+        <c:crossAx val="136831016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6243,7 +6250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245059552"/>
+        <c:axId val="136831016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -6296,7 +6303,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244736424"/>
+        <c:crossAx val="136830624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -6459,11 +6466,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="245060336"/>
-        <c:axId val="245060728"/>
+        <c:axId val="138767848"/>
+        <c:axId val="138768240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="245060336"/>
+        <c:axId val="138767848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6506,7 +6513,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245060728"/>
+        <c:crossAx val="138768240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6514,7 +6521,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245060728"/>
+        <c:axId val="138768240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -6567,7 +6574,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245060336"/>
+        <c:crossAx val="138767848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -7095,11 +7102,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="245061512"/>
-        <c:axId val="245061904"/>
+        <c:axId val="138769024"/>
+        <c:axId val="138769416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="245061512"/>
+        <c:axId val="138769024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7142,7 +7149,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245061904"/>
+        <c:crossAx val="138769416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7150,7 +7157,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245061904"/>
+        <c:axId val="138769416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7201,7 +7208,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245061512"/>
+        <c:crossAx val="138769024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7721,11 +7728,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="245062688"/>
-        <c:axId val="245063080"/>
+        <c:axId val="138770200"/>
+        <c:axId val="138770592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="245062688"/>
+        <c:axId val="138770200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7768,7 +7775,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245063080"/>
+        <c:crossAx val="138770592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7776,7 +7783,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245063080"/>
+        <c:axId val="138770592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7827,7 +7834,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245062688"/>
+        <c:crossAx val="138770200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7841,7 +7848,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8033,11 +8039,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="245919752"/>
-        <c:axId val="245920144"/>
+        <c:axId val="138771376"/>
+        <c:axId val="138578368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="245919752"/>
+        <c:axId val="138771376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8080,7 +8086,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245920144"/>
+        <c:crossAx val="138578368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8088,7 +8094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245920144"/>
+        <c:axId val="138578368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -8140,7 +8146,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245919752"/>
+        <c:crossAx val="138771376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -8315,11 +8321,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="245920928"/>
-        <c:axId val="245921320"/>
+        <c:axId val="138579152"/>
+        <c:axId val="138579544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="245920928"/>
+        <c:axId val="138579152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8362,7 +8368,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245921320"/>
+        <c:crossAx val="138579544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8370,7 +8376,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245921320"/>
+        <c:axId val="138579544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -8422,7 +8428,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245920928"/>
+        <c:crossAx val="138579152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -8597,11 +8603,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="245922104"/>
-        <c:axId val="245922496"/>
+        <c:axId val="138580328"/>
+        <c:axId val="138580720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="245922104"/>
+        <c:axId val="138580328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8644,7 +8650,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245922496"/>
+        <c:crossAx val="138580720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8652,7 +8658,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245922496"/>
+        <c:axId val="138580720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -8704,7 +8710,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245922104"/>
+        <c:crossAx val="138580328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -8879,11 +8885,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="246059760"/>
-        <c:axId val="246060152"/>
+        <c:axId val="138581504"/>
+        <c:axId val="138581896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="246059760"/>
+        <c:axId val="138581504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8926,7 +8932,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246060152"/>
+        <c:crossAx val="138581896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8934,7 +8940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246060152"/>
+        <c:axId val="138581896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -8986,7 +8992,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246059760"/>
+        <c:crossAx val="138581504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -9532,11 +9538,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="246060936"/>
-        <c:axId val="246061328"/>
+        <c:axId val="138722128"/>
+        <c:axId val="138722520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="246060936"/>
+        <c:axId val="138722128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9579,7 +9585,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246061328"/>
+        <c:crossAx val="138722520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9587,7 +9593,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246061328"/>
+        <c:axId val="138722520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -9639,7 +9645,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246060936"/>
+        <c:crossAx val="138722128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10222,11 +10228,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="246062112"/>
-        <c:axId val="246062504"/>
+        <c:axId val="138723304"/>
+        <c:axId val="138723696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="246062112"/>
+        <c:axId val="138723304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10269,7 +10275,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246062504"/>
+        <c:crossAx val="138723696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10277,7 +10283,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246062504"/>
+        <c:axId val="138723696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -10329,7 +10335,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246062112"/>
+        <c:crossAx val="138723304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10631,11 +10637,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="243402184"/>
-        <c:axId val="243402576"/>
+        <c:axId val="134787280"/>
+        <c:axId val="134787672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="243402184"/>
+        <c:axId val="134787280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10678,7 +10684,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243402576"/>
+        <c:crossAx val="134787672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10686,7 +10692,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243402576"/>
+        <c:axId val="134787672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -10739,7 +10745,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243402184"/>
+        <c:crossAx val="134787280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -11320,11 +11326,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="246063288"/>
-        <c:axId val="246294600"/>
+        <c:axId val="138724480"/>
+        <c:axId val="138724872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="246063288"/>
+        <c:axId val="138724480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11367,7 +11373,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246294600"/>
+        <c:crossAx val="138724872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11375,7 +11381,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246294600"/>
+        <c:axId val="138724872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -11427,7 +11433,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246063288"/>
+        <c:crossAx val="138724480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12007,11 +12013,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="246295384"/>
-        <c:axId val="246295776"/>
+        <c:axId val="139015632"/>
+        <c:axId val="139016024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="246295384"/>
+        <c:axId val="139015632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12054,7 +12060,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246295776"/>
+        <c:crossAx val="139016024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12062,7 +12068,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246295776"/>
+        <c:axId val="139016024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -12114,7 +12120,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246295384"/>
+        <c:crossAx val="139015632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12534,11 +12540,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="246296560"/>
-        <c:axId val="246296952"/>
+        <c:axId val="139016808"/>
+        <c:axId val="139017200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="246296560"/>
+        <c:axId val="139016808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12581,7 +12587,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246296952"/>
+        <c:crossAx val="139017200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12589,7 +12595,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246296952"/>
+        <c:axId val="139017200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -12642,7 +12648,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246296560"/>
+        <c:crossAx val="139016808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -13062,11 +13068,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="246297736"/>
-        <c:axId val="246298128"/>
+        <c:axId val="139017984"/>
+        <c:axId val="139018376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="246297736"/>
+        <c:axId val="139017984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13109,7 +13115,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246298128"/>
+        <c:crossAx val="139018376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13117,7 +13123,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246298128"/>
+        <c:axId val="139018376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -13170,7 +13176,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246297736"/>
+        <c:crossAx val="139017984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="1"/>
@@ -13590,11 +13596,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="246421984"/>
-        <c:axId val="246422376"/>
+        <c:axId val="139019160"/>
+        <c:axId val="137100008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="246421984"/>
+        <c:axId val="139019160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13637,7 +13643,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246422376"/>
+        <c:crossAx val="137100008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13645,7 +13651,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246422376"/>
+        <c:axId val="137100008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -13698,7 +13704,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246421984"/>
+        <c:crossAx val="139019160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -13713,7 +13719,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14119,11 +14124,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="246423160"/>
-        <c:axId val="246423552"/>
+        <c:axId val="137100792"/>
+        <c:axId val="137101184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="246423160"/>
+        <c:axId val="137100792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14166,7 +14171,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246423552"/>
+        <c:crossAx val="137101184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14174,7 +14179,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246423552"/>
+        <c:axId val="137101184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -14227,7 +14232,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246423160"/>
+        <c:crossAx val="137100792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -14242,7 +14247,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14784,11 +14788,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="246424336"/>
-        <c:axId val="246424728"/>
+        <c:axId val="137101968"/>
+        <c:axId val="137102360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="246424336"/>
+        <c:axId val="137101968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14831,7 +14835,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246424728"/>
+        <c:crossAx val="137102360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14839,7 +14843,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246424728"/>
+        <c:axId val="137102360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14890,7 +14894,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246424336"/>
+        <c:crossAx val="137101968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14904,7 +14908,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15192,11 +15195,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="246665864"/>
-        <c:axId val="246666256"/>
+        <c:axId val="137103144"/>
+        <c:axId val="137103536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="246665864"/>
+        <c:axId val="137103144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15239,7 +15242,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246666256"/>
+        <c:crossAx val="137103536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15247,7 +15250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246666256"/>
+        <c:axId val="137103536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15298,7 +15301,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246665864"/>
+        <c:crossAx val="137103144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15600,11 +15603,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="246667040"/>
-        <c:axId val="246667432"/>
+        <c:axId val="139296640"/>
+        <c:axId val="139297032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="246667040"/>
+        <c:axId val="139296640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15647,7 +15650,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246667432"/>
+        <c:crossAx val="139297032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15655,7 +15658,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246667432"/>
+        <c:axId val="139297032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15706,7 +15709,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246667040"/>
+        <c:crossAx val="139296640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16008,11 +16011,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="246668216"/>
-        <c:axId val="246668608"/>
+        <c:axId val="139297816"/>
+        <c:axId val="139298208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="246668216"/>
+        <c:axId val="139297816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16055,7 +16058,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246668608"/>
+        <c:crossAx val="139298208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16063,7 +16066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246668608"/>
+        <c:axId val="139298208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -16116,7 +16119,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246668216"/>
+        <c:crossAx val="139297816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16418,11 +16421,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="244206720"/>
-        <c:axId val="244207112"/>
+        <c:axId val="136526032"/>
+        <c:axId val="136526424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="244206720"/>
+        <c:axId val="136526032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16465,7 +16468,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244207112"/>
+        <c:crossAx val="136526424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16473,7 +16476,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244207112"/>
+        <c:axId val="136526424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -16526,7 +16529,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244206720"/>
+        <c:crossAx val="136526032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -16945,11 +16948,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="244207896"/>
-        <c:axId val="244208288"/>
+        <c:axId val="136528776"/>
+        <c:axId val="136529168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="244207896"/>
+        <c:axId val="136528776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16992,7 +16995,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244208288"/>
+        <c:crossAx val="136529168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17000,7 +17003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244208288"/>
+        <c:axId val="136529168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -17053,7 +17056,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244207896"/>
+        <c:crossAx val="136528776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -17472,11 +17475,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="244209072"/>
-        <c:axId val="244209464"/>
+        <c:axId val="136528384"/>
+        <c:axId val="136527992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="244209072"/>
+        <c:axId val="136528384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17519,7 +17522,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244209464"/>
+        <c:crossAx val="136527992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17527,7 +17530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244209464"/>
+        <c:axId val="136527992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -17580,7 +17583,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244209072"/>
+        <c:crossAx val="136528384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="1"/>
@@ -17993,11 +17996,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="244016040"/>
-        <c:axId val="244016432"/>
+        <c:axId val="136527208"/>
+        <c:axId val="136509640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="244016040"/>
+        <c:axId val="136527208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18040,7 +18043,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244016432"/>
+        <c:crossAx val="136509640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18048,7 +18051,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244016432"/>
+        <c:axId val="136509640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -18101,7 +18104,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244016040"/>
+        <c:crossAx val="136527208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="1"/>
@@ -18513,11 +18516,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="244017216"/>
-        <c:axId val="244017608"/>
+        <c:axId val="136510424"/>
+        <c:axId val="136510816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="244017216"/>
+        <c:axId val="136510424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18560,7 +18563,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244017608"/>
+        <c:crossAx val="136510816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18568,7 +18571,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244017608"/>
+        <c:axId val="136510816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -18621,7 +18624,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244017216"/>
+        <c:crossAx val="136510424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -18813,7 +18816,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -18964,7 +18966,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -19035,11 +19036,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="244018392"/>
-        <c:axId val="244018784"/>
+        <c:axId val="136511600"/>
+        <c:axId val="136511992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="244018392"/>
+        <c:axId val="136511600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19082,7 +19083,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244018784"/>
+        <c:crossAx val="136511992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19090,7 +19091,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244018784"/>
+        <c:axId val="136511992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -19143,7 +19144,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244018392"/>
+        <c:crossAx val="136511600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -19158,7 +19159,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -41909,7 +41909,7 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43022,7 +43022,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45426,7 +45426,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45643,6 +45643,517 @@
       </c>
       <c r="E21">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I2" t="s">
+        <v>238</v>
+      </c>
+      <c r="L2" t="s">
+        <v>234</v>
+      </c>
+      <c r="M2" t="s">
+        <v>231</v>
+      </c>
+      <c r="N2" t="s">
+        <v>232</v>
+      </c>
+      <c r="O2" t="s">
+        <v>233</v>
+      </c>
+      <c r="P2" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>236</v>
+      </c>
+      <c r="R2" t="s">
+        <v>237</v>
+      </c>
+      <c r="S2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGE(B3:B8)</f>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:J12" si="0">AVERAGE(C3:C8)</f>
+        <v>1.5</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="K12:S12" si="1">AVERAGE(L3:L8)</f>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="1"/>
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13">
+        <f>STDEV(B3:B8)</f>
+        <v>0.75277265270908089</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:J13" si="2">STDEV(C3:C8)</f>
+        <v>0.83666002653407556</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>0.81649658092772637</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>1.211060141638997</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>0.51639777949432275</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0.81649658092772637</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0.51639777949432275</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="K13:S13" si="3">STDEV(L3:L8)</f>
+        <v>0.75277265270908089</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>0.83666002653407556</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>0.81649658092772637</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>0.83666002653407556</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="3"/>
+        <v>0.75277265270908089</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>1.0488088481701516</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="3"/>
+        <v>0.40824829046386274</v>
       </c>
     </row>
   </sheetData>
@@ -47781,7 +48292,7 @@
   <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48916,7 +49427,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49535,7 +50046,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="N2" sqref="N2:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50531,7 +51042,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50980,7 +51491,7 @@
   <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="N2" sqref="N2:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51892,7 +52403,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52343,8 +52854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/User Study/Results/results.xlsx
+++ b/User Study/Results/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14235" firstSheet="5" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14235" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="242">
   <si>
     <t>Year of birth</t>
   </si>
@@ -764,6 +764,9 @@
   <si>
     <t>Emulated</t>
   </si>
+  <si>
+    <t>Number of emulated devices used</t>
+  </si>
 </sst>
 </file>
 
@@ -901,7 +904,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1278,11 +1280,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="133605312"/>
-        <c:axId val="133606096"/>
+        <c:axId val="416243856"/>
+        <c:axId val="416879640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133605312"/>
+        <c:axId val="416243856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1325,7 +1327,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133606096"/>
+        <c:crossAx val="416879640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1333,7 +1335,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133606096"/>
+        <c:axId val="416879640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1384,7 +1386,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133605312"/>
+        <c:crossAx val="416243856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1398,7 +1400,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1796,11 +1797,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="136512776"/>
-        <c:axId val="136876560"/>
+        <c:axId val="418678032"/>
+        <c:axId val="418677640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136512776"/>
+        <c:axId val="418678032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1843,7 +1844,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136876560"/>
+        <c:crossAx val="418677640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1851,7 +1852,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136876560"/>
+        <c:axId val="418677640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1904,7 +1905,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136512776"/>
+        <c:crossAx val="418678032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -4461,11 +4462,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="136879696"/>
-        <c:axId val="136880088"/>
+        <c:axId val="419691960"/>
+        <c:axId val="419692352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136879696"/>
+        <c:axId val="419691960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4508,7 +4509,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136880088"/>
+        <c:crossAx val="419692352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4516,7 +4517,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136880088"/>
+        <c:axId val="419692352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4568,7 +4569,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136879696"/>
+        <c:crossAx val="419691960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4925,11 +4926,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="136828272"/>
-        <c:axId val="136828664"/>
+        <c:axId val="419693136"/>
+        <c:axId val="419693528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136828272"/>
+        <c:axId val="419693136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4972,7 +4973,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136828664"/>
+        <c:crossAx val="419693528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4980,7 +4981,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136828664"/>
+        <c:axId val="419693528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5032,7 +5033,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136828272"/>
+        <c:crossAx val="419693136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5353,11 +5354,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="136829448"/>
-        <c:axId val="136829840"/>
+        <c:axId val="420499592"/>
+        <c:axId val="420499984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136829448"/>
+        <c:axId val="420499592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5400,7 +5401,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136829840"/>
+        <c:crossAx val="420499984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5408,7 +5409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136829840"/>
+        <c:axId val="420499984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -5460,7 +5461,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136829448"/>
+        <c:crossAx val="420499592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5901,11 +5902,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="134786104"/>
-        <c:axId val="134786496"/>
+        <c:axId val="415963472"/>
+        <c:axId val="415963864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="134786104"/>
+        <c:axId val="415963472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5948,7 +5949,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134786496"/>
+        <c:crossAx val="415963864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5956,7 +5957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134786496"/>
+        <c:axId val="415963864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6007,7 +6008,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134786104"/>
+        <c:crossAx val="415963472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6021,7 +6022,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6195,11 +6195,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="136830624"/>
-        <c:axId val="136831016"/>
+        <c:axId val="420500768"/>
+        <c:axId val="420501160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136830624"/>
+        <c:axId val="420500768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6242,7 +6242,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136831016"/>
+        <c:crossAx val="420501160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6250,7 +6250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136831016"/>
+        <c:axId val="420501160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -6303,7 +6303,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136830624"/>
+        <c:crossAx val="420500768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -6466,11 +6466,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="138767848"/>
-        <c:axId val="138768240"/>
+        <c:axId val="420501944"/>
+        <c:axId val="420502336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138767848"/>
+        <c:axId val="420501944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6513,7 +6513,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138768240"/>
+        <c:crossAx val="420502336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6521,7 +6521,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138768240"/>
+        <c:axId val="420502336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -6574,7 +6574,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138767848"/>
+        <c:crossAx val="420501944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -7102,11 +7102,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="138769024"/>
-        <c:axId val="138769416"/>
+        <c:axId val="420691488"/>
+        <c:axId val="420691880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138769024"/>
+        <c:axId val="420691488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7149,7 +7149,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138769416"/>
+        <c:crossAx val="420691880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7157,7 +7157,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138769416"/>
+        <c:axId val="420691880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7208,7 +7208,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138769024"/>
+        <c:crossAx val="420691488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7222,7 +7222,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7728,11 +7727,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="138770200"/>
-        <c:axId val="138770592"/>
+        <c:axId val="420692664"/>
+        <c:axId val="420693056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138770200"/>
+        <c:axId val="420692664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7775,7 +7774,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138770592"/>
+        <c:crossAx val="420693056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7783,7 +7782,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138770592"/>
+        <c:axId val="420693056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7834,7 +7833,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138770200"/>
+        <c:crossAx val="420692664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8039,11 +8038,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="138771376"/>
-        <c:axId val="138578368"/>
+        <c:axId val="420693840"/>
+        <c:axId val="420694232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138771376"/>
+        <c:axId val="420693840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8086,7 +8085,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138578368"/>
+        <c:crossAx val="420694232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8094,7 +8093,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138578368"/>
+        <c:axId val="420694232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -8146,7 +8145,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138771376"/>
+        <c:crossAx val="420693840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -8321,11 +8320,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="138579152"/>
-        <c:axId val="138579544"/>
+        <c:axId val="420695016"/>
+        <c:axId val="420845856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138579152"/>
+        <c:axId val="420695016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8368,7 +8367,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138579544"/>
+        <c:crossAx val="420845856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8376,7 +8375,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138579544"/>
+        <c:axId val="420845856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -8428,7 +8427,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138579152"/>
+        <c:crossAx val="420695016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -8603,11 +8602,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="138580328"/>
-        <c:axId val="138580720"/>
+        <c:axId val="420846640"/>
+        <c:axId val="420847032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138580328"/>
+        <c:axId val="420846640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8650,7 +8649,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138580720"/>
+        <c:crossAx val="420847032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8658,7 +8657,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138580720"/>
+        <c:axId val="420847032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -8710,7 +8709,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138580328"/>
+        <c:crossAx val="420846640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -8885,11 +8884,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="138581504"/>
-        <c:axId val="138581896"/>
+        <c:axId val="420847816"/>
+        <c:axId val="420848208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138581504"/>
+        <c:axId val="420847816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8932,7 +8931,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138581896"/>
+        <c:crossAx val="420848208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8940,7 +8939,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138581896"/>
+        <c:axId val="420848208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -8992,7 +8991,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138581504"/>
+        <c:crossAx val="420847816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -9538,11 +9537,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="138722128"/>
-        <c:axId val="138722520"/>
+        <c:axId val="420848992"/>
+        <c:axId val="420849384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138722128"/>
+        <c:axId val="420848992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9585,7 +9584,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138722520"/>
+        <c:crossAx val="420849384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9593,7 +9592,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138722520"/>
+        <c:axId val="420849384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -9645,7 +9644,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138722128"/>
+        <c:crossAx val="420848992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9659,7 +9658,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10228,11 +10226,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="138723304"/>
-        <c:axId val="138723696"/>
+        <c:axId val="421303416"/>
+        <c:axId val="421303808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138723304"/>
+        <c:axId val="421303416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10275,7 +10273,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138723696"/>
+        <c:crossAx val="421303808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10283,7 +10281,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138723696"/>
+        <c:axId val="421303808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -10335,7 +10333,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138723304"/>
+        <c:crossAx val="421303416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10637,11 +10635,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="134787280"/>
-        <c:axId val="134787672"/>
+        <c:axId val="415964648"/>
+        <c:axId val="415965040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="134787280"/>
+        <c:axId val="415964648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10684,7 +10682,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134787672"/>
+        <c:crossAx val="415965040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10692,7 +10690,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134787672"/>
+        <c:axId val="415965040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -10745,7 +10743,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134787280"/>
+        <c:crossAx val="415964648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -10760,7 +10758,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11326,11 +11323,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="138724480"/>
-        <c:axId val="138724872"/>
+        <c:axId val="421304592"/>
+        <c:axId val="421097232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138724480"/>
+        <c:axId val="421304592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11373,7 +11370,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138724872"/>
+        <c:crossAx val="421097232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11381,7 +11378,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138724872"/>
+        <c:axId val="421097232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -11433,7 +11430,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138724480"/>
+        <c:crossAx val="421304592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12013,11 +12010,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="139015632"/>
-        <c:axId val="139016024"/>
+        <c:axId val="421098016"/>
+        <c:axId val="421098408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139015632"/>
+        <c:axId val="421098016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12060,7 +12057,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139016024"/>
+        <c:crossAx val="421098408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12068,7 +12065,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139016024"/>
+        <c:axId val="421098408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -12120,7 +12117,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139015632"/>
+        <c:crossAx val="421098016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12540,11 +12537,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="139016808"/>
-        <c:axId val="139017200"/>
+        <c:axId val="421099192"/>
+        <c:axId val="421099584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139016808"/>
+        <c:axId val="421099192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12587,7 +12584,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139017200"/>
+        <c:crossAx val="421099584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12595,7 +12592,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139017200"/>
+        <c:axId val="421099584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -12648,7 +12645,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139016808"/>
+        <c:crossAx val="421099192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -13068,11 +13065,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="139017984"/>
-        <c:axId val="139018376"/>
+        <c:axId val="421100368"/>
+        <c:axId val="421100760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139017984"/>
+        <c:axId val="421100368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13115,7 +13112,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139018376"/>
+        <c:crossAx val="421100760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13123,7 +13120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139018376"/>
+        <c:axId val="421100760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -13176,7 +13173,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139017984"/>
+        <c:crossAx val="421100368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="1"/>
@@ -13596,11 +13593,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="139019160"/>
-        <c:axId val="137100008"/>
+        <c:axId val="421375096"/>
+        <c:axId val="421375488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139019160"/>
+        <c:axId val="421375096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13643,7 +13640,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137100008"/>
+        <c:crossAx val="421375488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13651,7 +13648,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137100008"/>
+        <c:axId val="421375488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -13704,7 +13701,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139019160"/>
+        <c:crossAx val="421375096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -14124,11 +14121,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="137100792"/>
-        <c:axId val="137101184"/>
+        <c:axId val="421376272"/>
+        <c:axId val="421460200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="137100792"/>
+        <c:axId val="421376272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14171,7 +14168,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137101184"/>
+        <c:crossAx val="421460200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14179,7 +14176,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137101184"/>
+        <c:axId val="421460200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -14232,7 +14229,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137100792"/>
+        <c:crossAx val="421376272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -14788,11 +14785,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="137101968"/>
-        <c:axId val="137102360"/>
+        <c:axId val="421460984"/>
+        <c:axId val="421461376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="137101968"/>
+        <c:axId val="421460984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14835,7 +14832,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137102360"/>
+        <c:crossAx val="421461376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14843,7 +14840,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137102360"/>
+        <c:axId val="421461376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14894,7 +14891,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137101968"/>
+        <c:crossAx val="421460984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14992,7 +14989,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -15000,41 +14997,39 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Times!$A$2</c:f>
+              <c:f>'number of devices used'!$X$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>With tools</c:v>
+                  <c:v>With</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
+            <a:gradFill flip="none" rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="0070C0">
+                    <a:shade val="30000"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="0070C0">
+                    <a:shade val="67500"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="0070C0">
+                    <a:shade val="100000"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
                 </a:gs>
               </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
+              <a:lin ang="10800000" scaled="1"/>
+              <a:tileRect/>
             </a:gradFill>
             <a:ln>
               <a:noFill/>
@@ -15050,7 +15045,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Times!$A$3:$D$3</c:f>
+              <c:f>'number of devices used'!$M$16:$M$19</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -15070,21 +15065,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Times!$A$24:$D$24</c:f>
+              <c:f>'number of devices used'!$L$12:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.25</c:v>
+                  <c:v>1.8333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.416666666666666</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.083333333333332</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15095,41 +15090,39 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Times!$E$2</c:f>
+              <c:f>'number of devices used'!$X$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Without tools</c:v>
+                  <c:v>Without</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
+            <a:gradFill flip="none" rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="00B0F0">
+                    <a:shade val="30000"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="00B0F0">
+                    <a:shade val="67500"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="00B0F0">
+                    <a:shade val="100000"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
                 </a:gs>
               </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
+              <a:lin ang="10800000" scaled="1"/>
+              <a:tileRect/>
             </a:gradFill>
             <a:ln>
               <a:noFill/>
@@ -15145,7 +15138,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Times!$A$3:$D$3</c:f>
+              <c:f>'number of devices used'!$M$16:$M$19</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -15165,21 +15158,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Times!$E$22:$H$22</c:f>
+              <c:f>'number of devices used'!$Q$12:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.75</c:v>
+                  <c:v>2.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>2.1666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>2.1666666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15193,18 +15186,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="115"/>
-        <c:overlap val="-20"/>
-        <c:axId val="137103144"/>
-        <c:axId val="137103536"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="421462160"/>
+        <c:axId val="421462552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="137103144"/>
+        <c:axId val="421462160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -15242,7 +15235,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137103536"/>
+        <c:crossAx val="421462552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15250,12 +15243,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137103536"/>
+        <c:axId val="421462552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -15301,7 +15294,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137103144"/>
+        <c:crossAx val="421462160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15377,7 +15370,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -15573,7 +15566,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Times!$E$24:$H$24</c:f>
+              <c:f>Times!$E$22:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -15581,13 +15574,13 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.583333333333332</c:v>
+                  <c:v>18.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.333333333333332</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.4</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15603,11 +15596,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="139296640"/>
-        <c:axId val="139297032"/>
+        <c:axId val="421463336"/>
+        <c:axId val="421463728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139296640"/>
+        <c:axId val="421463336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15650,7 +15643,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139297032"/>
+        <c:crossAx val="421463728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15658,7 +15651,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139297032"/>
+        <c:axId val="421463728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15709,7 +15702,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139296640"/>
+        <c:crossAx val="421463336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15816,11 +15809,535 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Total!$A$1</c:f>
+              <c:f>Times!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>With</c:v>
+                  <c:v>With tools</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="0070C0">
+                    <a:shade val="30000"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:srgbClr val="0070C0">
+                    <a:shade val="67500"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="0070C0">
+                    <a:shade val="100000"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Times!$A$26:$D$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5.8523499553598128</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.1240384046359608</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.7204390421920168</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.4404778695679727</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Times!$A$26:$D$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5.8523499553598128</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.1240384046359608</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.7204390421920168</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.4404778695679727</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Times!$A$3:$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>xdc-bug</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xdc-impl</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>xdyt-bug</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>xdyt-impl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Times!$A$24:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.416666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.083333333333332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Times!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Without tools</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="00B0F0">
+                    <a:shade val="30000"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:srgbClr val="00B0F0">
+                    <a:shade val="67500"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="00B0F0">
+                    <a:shade val="100000"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Times!$E$26:$H$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.3466401061363023</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.9700642095932848</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.0327955589886446</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.3197744313081508</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Times!$E$26:$H$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.3466401061363023</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.9700642095932848</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.0327955589886446</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.3197744313081508</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Times!$A$3:$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>xdc-bug</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xdc-impl</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>xdyt-bug</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>xdyt-impl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Times!$E$24:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.583333333333332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="421636656"/>
+        <c:axId val="421637048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="421636656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="421637048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="421637048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="421636656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'xdc-bug-wo'!$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Without tool</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15866,7 +16383,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Total!$F$2:$I$2</c:f>
+              <c:f>'xdc-bug-wo'!$F$8:$F$11</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -15886,21 +16403,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Total!$A$16:$D$16</c:f>
+              <c:f>'xdyt-impl-wo'!$B$20:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15911,11 +16428,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Total!$F$1</c:f>
+              <c:f>'xdc-bug-wo'!$G$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Without</c:v>
+                  <c:v>With tool</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15961,7 +16478,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Total!$F$2:$I$2</c:f>
+              <c:f>'xdc-bug-wo'!$F$8:$F$11</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -15981,21 +16498,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Total!$F$16:$I$16</c:f>
+              <c:f>'xdyt-impl-with'!$B$21:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16011,11 +16528,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="139297816"/>
-        <c:axId val="139298208"/>
+        <c:axId val="415965824"/>
+        <c:axId val="415966216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139297816"/>
+        <c:axId val="415965824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16058,7 +16575,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139298208"/>
+        <c:crossAx val="415966216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16066,7 +16583,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139298208"/>
+        <c:axId val="415966216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -16119,7 +16636,413 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139297816"/>
+        <c:crossAx val="415965824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Total!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>With</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="0070C0">
+                    <a:shade val="30000"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:srgbClr val="0070C0">
+                    <a:shade val="67500"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="0070C0">
+                    <a:shade val="100000"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Total!$F$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Easy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Efficient</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Challenging</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Well suited</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Total!$A$16:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Total!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Without</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="00B0F0">
+                    <a:shade val="30000"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:srgbClr val="00B0F0">
+                    <a:shade val="67500"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="00B0F0">
+                    <a:shade val="100000"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Total!$F$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Easy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Efficient</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Challenging</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Well suited</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Total!$F$16:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="421637832"/>
+        <c:axId val="421638224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="421637832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="421638224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="421638224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="421637832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16200,7 +17123,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -16218,7 +17141,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -16226,41 +17149,39 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'xdc-bug-wo'!$G$8</c:f>
+              <c:f>'number of devices used'!$X$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Without tool</c:v>
+                  <c:v>With</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
+            <a:gradFill flip="none" rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="0070C0">
+                    <a:shade val="30000"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="0070C0">
+                    <a:shade val="67500"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="0070C0">
+                    <a:shade val="100000"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
                 </a:gs>
               </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
+              <a:lin ang="10800000" scaled="1"/>
+              <a:tileRect/>
             </a:gradFill>
             <a:ln>
               <a:noFill/>
@@ -16274,43 +17195,103 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'number of devices used'!$L$13:$O$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.75277265270908089</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.83666002653407556</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.0488088481701516</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'number of devices used'!$L$13:$O$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.75277265270908089</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.83666002653407556</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.0488088481701516</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'xdc-bug-wo'!$F$8:$F$11</c:f>
+              <c:f>'number of devices used'!$M$16:$M$19</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Easy</c:v>
+                  <c:v>xdc-bug</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Efficient</c:v>
+                  <c:v>xdc-impl</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Challenging</c:v>
+                  <c:v>xdyt-bug</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Well suited</c:v>
+                  <c:v>xdyt-impl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'xdyt-impl-wo'!$B$20:$E$20</c:f>
+              <c:f>'number of devices used'!$L$12:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>1.8333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16321,41 +17302,39 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'xdc-bug-wo'!$G$9</c:f>
+              <c:f>'number of devices used'!$X$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>With tool</c:v>
+                  <c:v>Without</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
+            <a:gradFill flip="none" rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="00B0F0">
+                    <a:shade val="30000"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="00B0F0">
+                    <a:shade val="67500"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="00B0F0">
+                    <a:shade val="100000"/>
+                    <a:satMod val="115000"/>
+                  </a:srgbClr>
                 </a:gs>
               </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
+              <a:lin ang="10800000" scaled="1"/>
+              <a:tileRect/>
             </a:gradFill>
             <a:ln>
               <a:noFill/>
@@ -16369,43 +17348,103 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'number of devices used'!$Q$13:$T$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.83666002653407556</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.81649658092772637</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.75277265270908089</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.40824829046386274</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'number of devices used'!$Q$13:$T$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.83666002653407556</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.81649658092772637</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.75277265270908089</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.40824829046386274</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'xdc-bug-wo'!$F$8:$F$11</c:f>
+              <c:f>'number of devices used'!$M$16:$M$19</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Easy</c:v>
+                  <c:v>xdc-bug</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Efficient</c:v>
+                  <c:v>xdc-impl</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Challenging</c:v>
+                  <c:v>xdyt-bug</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Well suited</c:v>
+                  <c:v>xdyt-impl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'xdyt-impl-with'!$B$21:$E$21</c:f>
+              <c:f>'number of devices used'!$Q$12:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.5</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5</c:v>
+                  <c:v>2.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5</c:v>
+                  <c:v>2.1666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5</c:v>
+                  <c:v>2.1666666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16419,18 +17458,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="115"/>
-        <c:overlap val="-20"/>
-        <c:axId val="136526032"/>
-        <c:axId val="136526424"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="416242680"/>
+        <c:axId val="421638616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136526032"/>
+        <c:axId val="416242680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -16468,7 +17507,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136526424"/>
+        <c:crossAx val="421638616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16476,14 +17515,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136526424"/>
+        <c:axId val="421638616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -16529,10 +17566,9 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136526032"/>
+        <c:crossAx val="416242680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -16606,7 +17642,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -16724,7 +17760,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -16877,7 +17912,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -16948,11 +17982,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="136528776"/>
-        <c:axId val="136529168"/>
+        <c:axId val="418679208"/>
+        <c:axId val="418679600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136528776"/>
+        <c:axId val="418679208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16995,7 +18029,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136529168"/>
+        <c:crossAx val="418679600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17003,7 +18037,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136529168"/>
+        <c:axId val="418679600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -17056,7 +18090,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136528776"/>
+        <c:crossAx val="418679208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -17071,7 +18105,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17251,7 +18284,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -17404,7 +18436,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -17475,11 +18506,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="136528384"/>
-        <c:axId val="136527992"/>
+        <c:axId val="418680776"/>
+        <c:axId val="419302320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136528384"/>
+        <c:axId val="418680776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17522,7 +18553,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136527992"/>
+        <c:crossAx val="419302320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17530,7 +18561,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136527992"/>
+        <c:axId val="419302320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -17583,7 +18614,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136528384"/>
+        <c:crossAx val="418680776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="1"/>
@@ -17598,7 +18629,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17996,11 +19026,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="136527208"/>
-        <c:axId val="136509640"/>
+        <c:axId val="419303104"/>
+        <c:axId val="419303496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136527208"/>
+        <c:axId val="419303104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18043,7 +19073,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136509640"/>
+        <c:crossAx val="419303496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18051,7 +19081,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136509640"/>
+        <c:axId val="419303496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -18104,7 +19134,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136527208"/>
+        <c:crossAx val="419303104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="1"/>
@@ -18516,11 +19546,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="136510424"/>
-        <c:axId val="136510816"/>
+        <c:axId val="419304280"/>
+        <c:axId val="419304672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136510424"/>
+        <c:axId val="419304280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18563,7 +19593,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136510816"/>
+        <c:crossAx val="419304672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18571,7 +19601,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136510816"/>
+        <c:axId val="419304672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -18624,7 +19654,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136510424"/>
+        <c:crossAx val="419304280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -19036,11 +20066,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="136511600"/>
-        <c:axId val="136511992"/>
+        <c:axId val="418680384"/>
+        <c:axId val="418678816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136511600"/>
+        <c:axId val="418680384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19083,7 +20113,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136511992"/>
+        <c:crossAx val="418678816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19091,7 +20121,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136511992"/>
+        <c:axId val="418678816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -19144,7 +20174,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136511600"/>
+        <c:crossAx val="418680384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -20585,6 +21615,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors40.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors41.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -35852,7 +36962,7 @@
 </file>
 
 <file path=xl/charts/style37.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -35958,7 +37068,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -35968,7 +37078,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -35978,7 +37088,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="34925" cap="rnd">
@@ -35998,7 +37108,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -36009,7 +37119,7 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -36017,7 +37127,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -37524,6 +38634,1010 @@
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style40.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style41.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -41538,6 +43652,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="38" name="Chart 37"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -41575,16 +43721,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -41627,6 +43773,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -43502,10 +45685,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I288"/>
+  <dimension ref="A1:I304"/>
   <sheetViews>
-    <sheetView topLeftCell="A226" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I185" sqref="I185"/>
+    <sheetView topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E331" sqref="E331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43606,9 +45789,15 @@
         <v>168</v>
       </c>
     </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>241</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -43616,8 +45805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44744,7 +46933,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45652,15 +47841,15 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>92</v>
       </c>
@@ -45668,7 +47857,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>234</v>
       </c>
@@ -45697,28 +47886,28 @@
         <v>234</v>
       </c>
       <c r="M2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N2" t="s">
+        <v>235</v>
+      </c>
+      <c r="O2" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q2" t="s">
         <v>231</v>
       </c>
-      <c r="N2" t="s">
-        <v>232</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>233</v>
       </c>
-      <c r="P2" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>236</v>
       </c>
-      <c r="R2" t="s">
-        <v>237</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -45750,25 +47939,25 @@
         <v>3</v>
       </c>
       <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
         <v>3</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>3</v>
-      </c>
-      <c r="P3">
-        <v>4</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
       </c>
       <c r="S3">
         <v>2</v>
       </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -45797,28 +47986,31 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O4">
         <v>3</v>
       </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
       <c r="Q4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>3</v>
       </c>
       <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4">
         <v>2</v>
       </c>
+      <c r="X4" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -45847,7 +48039,7 @@
         <v>2</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -45855,9 +48047,6 @@
       <c r="O5">
         <v>3</v>
       </c>
-      <c r="P5">
-        <v>3</v>
-      </c>
       <c r="Q5">
         <v>2</v>
       </c>
@@ -45867,8 +48056,14 @@
       <c r="S5">
         <v>2</v>
       </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="X5" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
@@ -45897,28 +48092,28 @@
         <v>2</v>
       </c>
       <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
         <v>1</v>
       </c>
-      <c r="N6">
+      <c r="R6">
         <v>3</v>
-      </c>
-      <c r="O6">
-        <v>3</v>
-      </c>
-      <c r="P6">
-        <v>2</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
-      </c>
-      <c r="R6">
-        <v>4</v>
       </c>
       <c r="S6">
         <v>3</v>
       </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -45947,28 +48142,28 @@
         <v>1</v>
       </c>
       <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
         <v>1</v>
       </c>
-      <c r="N7">
+      <c r="R7">
         <v>3</v>
-      </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
-      <c r="P7">
-        <v>2</v>
-      </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
-      <c r="R7">
-        <v>2</v>
       </c>
       <c r="S7">
         <v>2</v>
       </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>3</v>
       </c>
@@ -45997,28 +48192,28 @@
         <v>3</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
         <v>2</v>
       </c>
       <c r="Q8">
         <v>1</v>
       </c>
       <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
         <v>2</v>
       </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>239</v>
       </c>
@@ -46027,7 +48222,7 @@
         <v>1.8333333333333333</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:J12" si="0">AVERAGE(C3:C8)</f>
+        <f t="shared" ref="C12:I12" si="0">AVERAGE(C3:C8)</f>
         <v>1.5</v>
       </c>
       <c r="D12">
@@ -46055,39 +48250,39 @@
         <v>2.3333333333333335</v>
       </c>
       <c r="L12">
-        <f t="shared" ref="K12:S12" si="1">AVERAGE(L3:L8)</f>
+        <f t="shared" ref="L12" si="1">AVERAGE(L3:L8)</f>
         <v>1.8333333333333333</v>
       </c>
       <c r="M12">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(M3:M8)</f>
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <f>AVERAGE(N3:N8)</f>
+        <v>2.5</v>
+      </c>
+      <c r="O12">
+        <f>AVERAGE(O3:O8)</f>
+        <v>2.5</v>
+      </c>
+      <c r="Q12">
+        <f>AVERAGE(Q3:Q8)</f>
         <v>1.5</v>
       </c>
-      <c r="N12">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="1"/>
+      <c r="R12">
+        <f>AVERAGE(R3:R8)</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="P12">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="1"/>
+      <c r="S12">
+        <f>AVERAGE(S3:S8)</f>
         <v>2.1666666666666665</v>
       </c>
-      <c r="R12">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="1"/>
+      <c r="T12">
+        <f>AVERAGE(T3:T8)</f>
         <v>2.1666666666666665</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>151</v>
       </c>
@@ -46096,7 +48291,7 @@
         <v>0.75277265270908089</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:J13" si="2">STDEV(C3:C8)</f>
+        <f t="shared" ref="C13:I13" si="2">STDEV(C3:C8)</f>
         <v>0.83666002653407556</v>
       </c>
       <c r="D13">
@@ -46124,40 +48319,95 @@
         <v>0.51639777949432275</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="K13:S13" si="3">STDEV(L3:L8)</f>
+        <f t="shared" ref="L13" si="3">STDEV(L3:L8)</f>
         <v>0.75277265270908089</v>
       </c>
       <c r="M13">
-        <f t="shared" si="3"/>
+        <f>STDEV(M3:M8)</f>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f>STDEV(N3:N8)</f>
         <v>0.83666002653407556</v>
       </c>
-      <c r="N13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="O13">
-        <f t="shared" si="3"/>
+        <f>STDEV(O3:O8)</f>
+        <v>1.0488088481701516</v>
+      </c>
+      <c r="Q13">
+        <f>STDEV(Q3:Q8)</f>
+        <v>0.83666002653407556</v>
+      </c>
+      <c r="R13">
+        <f>STDEV(R3:R8)</f>
         <v>0.81649658092772637</v>
       </c>
-      <c r="P13">
-        <f t="shared" si="3"/>
-        <v>0.83666002653407556</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="3"/>
+      <c r="S13">
+        <f>STDEV(S3:S8)</f>
         <v>0.75277265270908089</v>
       </c>
-      <c r="R13">
-        <f t="shared" si="3"/>
-        <v>1.0488088481701516</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="3"/>
+      <c r="T13">
+        <f>STDEV(T3:T8)</f>
         <v>0.40824829046386274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f>MEDIAN(L3:L8)</f>
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:O14" si="4">MEDIAN(M3:M8)</f>
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="Q14">
+        <f>MEDIAN(Q3:Q8)</f>
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <f t="shared" ref="R14:T14" si="5">MEDIAN(R3:R8)</f>
+        <v>3</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
